--- a/assets/Human Development Index (HDI).xlsx
+++ b/assets/Human Development Index (HDI).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\GeographieMA\Masterarbeit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\GeographieMA\Masterarbeit\data\Konfliktforschung\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F485F411-104A-4C7F-85D6-4F35BC700ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96764F3F-5271-4986-90FD-BB6667546A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22455" yWindow="1695" windowWidth="23250" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Human Development Index (HD (2)" sheetId="2" r:id="rId1"/>
@@ -4462,9 +4462,6 @@
     <t>RWA</t>
   </si>
   <si>
-    <t>KANN</t>
-  </si>
-  <si>
     <t>LCA</t>
   </si>
   <si>
@@ -4601,6 +4598,9 @@
   </si>
   <si>
     <t>THA</t>
+  </si>
+  <si>
+    <t>KNA</t>
   </si>
 </sst>
 </file>
@@ -5666,20 +5666,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="33" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="33" width="12.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>244</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>336</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>364</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>383</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>401</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>416</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>436</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>455</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>485</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>504</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>520</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>533</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>543</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>520</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>577</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>590</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>606</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>622</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>649</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>660</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>672</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>679</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>687</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>694</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>703</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>710</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>724</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>746</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>754</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>771</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>790</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>801</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>820</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>831</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>838</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>846</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>852</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>862</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>869</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>879</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>831</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>888</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>890</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>900</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>904</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>917</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>924</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>935</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>504</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>942</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>945</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>952</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>958</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>961</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>965</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>970</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>976</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>980</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>983</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>986</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>988</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>990</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>994</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>996</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>970</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1008</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1014</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>869</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1026</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1029</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>1034</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1040</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>1045</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1040</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>1049</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>660</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>888</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>1056</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1060</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1065</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>965</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>1068</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1065</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>1071</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>1073</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>1075</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>1078</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1081</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1083</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>1085</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1090</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>1092</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>1094</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>869</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>1098</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1065</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1101</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1081</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>1104</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1106</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>879</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>1113</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>1115</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>1125</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1127</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1129</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1131</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1008</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1134</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>1136</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1138</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1140</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>1142</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1144</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>1154</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>1156</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>1158</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>455</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>590</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>1164</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>1168</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>1185</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1187</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>1189</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>1195</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>1197</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1199</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>1201</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>1203</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>1205</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>1207</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1209</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>660</v>
       </c>
@@ -19718,12 +19718,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="B140" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1213</v>
@@ -19819,7 +19819,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>1214</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1216</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>1218</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>1220</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>1222</v>
       </c>
@@ -20324,12 +20324,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="B146" t="s">
-        <v>1476</v>
+        <v>1522</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1228</v>
@@ -20425,12 +20425,12 @@
         <v>892</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>942</v>
       </c>
       <c r="B147" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1229</v>
@@ -20526,12 +20526,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="B148" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>1231</v>
@@ -20627,12 +20627,12 @@
         <v>882</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>1232</v>
       </c>
       <c r="B149" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1233</v>
@@ -20728,12 +20728,12 @@
         <v>833</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B150" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1235</v>
@@ -20829,12 +20829,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="B151" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1236</v>
@@ -20930,12 +20930,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="B152" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>1238</v>
@@ -21031,12 +21031,12 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="B153" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1240</v>
@@ -21132,12 +21132,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="B154" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>1242</v>
@@ -21233,12 +21233,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>710</v>
       </c>
       <c r="B155" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1243</v>
@@ -21334,12 +21334,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>983</v>
       </c>
       <c r="B156" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1249</v>
@@ -21435,12 +21435,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="B157" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1251</v>
@@ -21536,12 +21536,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="B158" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>1253</v>
@@ -21637,12 +21637,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="B159" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1255</v>
@@ -21738,12 +21738,12 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="B160" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>1257</v>
@@ -21839,12 +21839,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B161" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1258</v>
@@ -21940,12 +21940,12 @@
         <v>745</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="B162" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>1260</v>
@@ -22041,12 +22041,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="B163" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>1262</v>
@@ -22142,12 +22142,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="B164" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>1263</v>
@@ -22243,12 +22243,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="B165" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1264</v>
@@ -22344,12 +22344,12 @@
         <v>882</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="B166" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>1266</v>
@@ -22445,12 +22445,12 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="B167" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>1268</v>
@@ -22546,12 +22546,12 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="B168" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>1270</v>
@@ -22647,12 +22647,12 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1271</v>
       </c>
       <c r="B169" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>1272</v>
@@ -22748,12 +22748,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="B170" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1274</v>
@@ -22849,12 +22849,12 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="B171" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1275</v>
@@ -22950,12 +22950,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="B172" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1277</v>
@@ -23051,12 +23051,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="B173" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1279</v>
@@ -23152,12 +23152,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="B174" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1281</v>
@@ -23253,12 +23253,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="B175" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1282</v>
@@ -23354,12 +23354,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="B176" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1283</v>
@@ -23455,12 +23455,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="B177" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1285</v>
@@ -23556,12 +23556,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1232</v>
       </c>
       <c r="B178" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>1286</v>
@@ -23657,12 +23657,12 @@
         <v>833</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="B179" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1288</v>
@@ -23758,12 +23758,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="B180" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>1291</v>
@@ -23859,12 +23859,12 @@
         <v>892</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="B181" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1293</v>
@@ -23960,12 +23960,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="B182" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>1295</v>
@@ -24061,12 +24061,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="B183" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>1297</v>
@@ -24162,12 +24162,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="B184" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>1299</v>
@@ -24263,12 +24263,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="B185" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1301</v>
@@ -24364,12 +24364,12 @@
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="B186" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>1303</v>
@@ -24465,12 +24465,12 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="B187" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>1305</v>
@@ -24566,12 +24566,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="B188" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>1306</v>
@@ -24667,12 +24667,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="B189" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>1308</v>
@@ -24768,12 +24768,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="B190" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>1310</v>
@@ -24869,12 +24869,12 @@
         <v>960</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="B191" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>1312</v>
@@ -24970,7 +24970,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>243</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25362,7 +25362,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>243</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1314</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>243</v>
       </c>
@@ -26749,1059 +26749,1059 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
